--- a/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT3_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT3_VICINITYCore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Candidate CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5C65E-D2A4-4E20-8F50-76658193BC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39431E8A-67CC-4F69-9D39-80587DE093B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1966,13 +1966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:A1075"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT3_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT3_VICINITYCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39431E8A-67CC-4F69-9D39-80587DE093B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8B51A-FE08-41A4-AD68-0B789121478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,9 +977,6 @@
     <t>What is the object of the predicate "onProperty"?</t>
   </si>
   <si>
-    <t>What is the maximum qualified cardinality of N8c11f855e1c14ea39e31f680abab4736?</t>
-  </si>
-  <si>
     <t>What type of Thing (Virtual or Physical) does a service expose?</t>
   </si>
   <si>
@@ -1599,6 +1596,9 @@
   </si>
   <si>
     <t>How does the sensor label itself?</t>
+  </si>
+  <si>
+    <t>What is the maximum qualified cardinality of importing?</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>521</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
@@ -3637,1027 +3637,1027 @@
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
